--- a/data_year/zb/农业/农村居民家庭平均每百户拥有主要生产性固定资产数量.xlsx
+++ b/data_year/zb/农业/农村居民家庭平均每百户拥有主要生产性固定资产数量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,403 +478,93 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.56</v>
+        <v>62.25546268</v>
       </c>
       <c r="C2" t="n">
-        <v>1.41</v>
+        <v>3.361636604</v>
       </c>
       <c r="D2" t="n">
-        <v>16.72</v>
+        <v>19.44874615</v>
       </c>
       <c r="E2" t="n">
-        <v>41.75</v>
+        <v>23.41656401</v>
       </c>
       <c r="F2" t="n">
-        <v>9.59</v>
+        <v>10.61523684</v>
       </c>
       <c r="G2" t="n">
-        <v>17.73</v>
+        <v>25.88291538</v>
       </c>
       <c r="H2" t="n">
-        <v>1.32</v>
+        <v>2.401745124</v>
       </c>
       <c r="I2" t="n">
-        <v>13.26</v>
+        <v>8.419709635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.65</v>
+        <v>81.89743695999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4961138</v>
+        <v>3.976477512</v>
       </c>
       <c r="D3" t="n">
-        <v>17.40959085</v>
+        <v>19.85152508</v>
       </c>
       <c r="E3" t="n">
-        <v>39.66798651</v>
+        <v>26.48068002</v>
       </c>
       <c r="F3" t="n">
-        <v>9.275113653</v>
+        <v>10.43456638</v>
       </c>
       <c r="G3" t="n">
-        <v>19.91538349</v>
+        <v>23.61378773</v>
       </c>
       <c r="H3" t="n">
-        <v>1.196949699</v>
+        <v>3.782836189</v>
       </c>
       <c r="I3" t="n">
-        <v>14.52</v>
+        <v>4.316830515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.42836193</v>
+        <v>86.12592586</v>
       </c>
       <c r="C4" t="n">
-        <v>1.526763455</v>
+        <v>4.39610184</v>
       </c>
       <c r="D4" t="n">
-        <v>18.48438187</v>
+        <v>20.48913033</v>
       </c>
       <c r="E4" t="n">
-        <v>39.38216747</v>
+        <v>26.36105458</v>
       </c>
       <c r="F4" t="n">
-        <v>9.619885613999999</v>
+        <v>11.49326309</v>
       </c>
       <c r="G4" t="n">
-        <v>21.53262942</v>
+        <v>25.4595378</v>
       </c>
       <c r="H4" t="n">
-        <v>1.290365156</v>
+        <v>4.049563567</v>
       </c>
       <c r="I4" t="n">
-        <v>14.31221587</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>58.61643936</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.793195483</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.93295205</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.52327321</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.05918756</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21.11850711</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.399149435</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13.71036809</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>51.83296671</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.23786479</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.77644816</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.83049128</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.12285526</v>
-      </c>
-      <c r="G6" t="n">
-        <v>22.06058073</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.4291685</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.87813462</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>60.28185951</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.133450653</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.23859803</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29.32864056</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.691025077000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>21.0314269</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.763381728</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.854568119</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>61.76272181</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.391890307</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.06075671</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28.74961138</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.44330547</v>
-      </c>
-      <c r="G8" t="n">
-        <v>22.11561079</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.834873149</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.492638217</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>63.59488195</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.853937527</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19.09815222</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27.49848951</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.759099575</v>
-      </c>
-      <c r="G9" t="n">
-        <v>23.35266168</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.910104121</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.863616366</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>67.75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="E10" t="n">
-        <v>26</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="G10" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>63.32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8.640000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>62.25546268</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.361636604</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.44874615</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.41656401</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10.61523684</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.88291538</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.401745124</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.419709635</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>81.89743695999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.976477512</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19.85152508</v>
-      </c>
-      <c r="E13" t="n">
-        <v>26.48068002</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.43456638</v>
-      </c>
-      <c r="G13" t="n">
-        <v>23.61378773</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.782836189</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.316830515</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>86.12592586</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.39610184</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.48913033</v>
-      </c>
-      <c r="E14" t="n">
-        <v>26.36105458</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11.49326309</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25.4595378</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.049563567</v>
-      </c>
-      <c r="I14" t="n">
         <v>4.308580766</v>
       </c>
     </row>
